--- a/data/bank.xlsx
+++ b/data/bank.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>code</t>
   </si>
@@ -52,9 +52,6 @@
     <t>rateofreturn</t>
   </si>
   <si>
-    <t>mean</t>
-  </si>
-  <si>
     <t>张家港行</t>
   </si>
   <si>
@@ -82,18 +79,15 @@
     <t>平安银行</t>
   </si>
   <si>
+    <t>南京银行</t>
+  </si>
+  <si>
     <t>杭州银行</t>
   </si>
   <si>
-    <t>南京银行</t>
-  </si>
-  <si>
     <t>工商银行</t>
   </si>
   <si>
-    <t>建设银行</t>
-  </si>
-  <si>
     <t>中信银行</t>
   </si>
   <si>
@@ -109,16 +103,13 @@
     <t>华夏银行</t>
   </si>
   <si>
+    <t>江苏银行</t>
+  </si>
+  <si>
     <t>浦发银行</t>
   </si>
   <si>
-    <t>江苏银行</t>
-  </si>
-  <si>
     <t>中国银行</t>
-  </si>
-  <si>
-    <t>光大银行</t>
   </si>
   <si>
     <t>农业银行</t>
@@ -479,7 +470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +478,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,34 +515,31 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="n">
-        <v>3358</v>
+        <v>3317</v>
       </c>
       <c r="B2" t="n">
         <v>2839</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>2.355172413793103</v>
+        <v>2.742971887550201</v>
       </c>
       <c r="F2" t="n">
         <v>6.83</v>
       </c>
       <c r="G2" t="n">
-        <v>2.9</v>
+        <v>2.49</v>
       </c>
       <c r="H2" t="n">
-        <v>32.33</v>
+        <v>27.73</v>
       </c>
       <c r="I2" t="s"/>
       <c r="J2" t="n">
@@ -564,32 +552,31 @@
       <c r="M2" t="n">
         <v>0.0349</v>
       </c>
-      <c r="N2" t="s"/>
-    </row>
-    <row r="3" spans="1:14">
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="n">
-        <v>3225</v>
+        <v>307</v>
       </c>
       <c r="B3" t="n">
         <v>2807</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="n">
-        <v>3.147540983606557</v>
+        <v>3.18232044198895</v>
       </c>
       <c r="F3" t="n">
         <v>5.76</v>
       </c>
       <c r="G3" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="H3" t="n">
-        <v>23.83</v>
+        <v>23.47</v>
       </c>
       <c r="I3" t="n">
         <v>2.862</v>
@@ -604,32 +591,31 @@
       <c r="M3" t="n">
         <v>0.0282</v>
       </c>
-      <c r="N3" t="s"/>
-    </row>
-    <row r="4" spans="1:14">
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="n">
-        <v>2807</v>
+        <v>1596</v>
       </c>
       <c r="B4" t="n">
         <v>603323</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="n">
-        <v>4.209039548022599</v>
+        <v>4.40828402366864</v>
       </c>
       <c r="F4" t="n">
         <v>7.45</v>
       </c>
       <c r="G4" t="n">
-        <v>1.77</v>
+        <v>1.69</v>
       </c>
       <c r="H4" t="n">
-        <v>17.8</v>
+        <v>16.98</v>
       </c>
       <c r="I4" t="n">
         <v>17.7136</v>
@@ -644,32 +630,31 @@
       <c r="M4" t="n">
         <v>-0.0055</v>
       </c>
-      <c r="N4" t="s"/>
-    </row>
-    <row r="5" spans="1:14">
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="n">
-        <v>3056</v>
+        <v>580</v>
       </c>
       <c r="B5" t="n">
         <v>600908</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>4.572972972972973</v>
+        <v>4.622950819672131</v>
       </c>
       <c r="F5" t="n">
         <v>8.460000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H5" t="n">
-        <v>16.41</v>
+        <v>16.17</v>
       </c>
       <c r="I5" t="n">
         <v>4.3691</v>
@@ -684,32 +669,31 @@
       <c r="M5" t="n">
         <v>0.0302</v>
       </c>
-      <c r="N5" t="s"/>
-    </row>
-    <row r="6" spans="1:14">
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="n">
-        <v>2601</v>
+        <v>668</v>
       </c>
       <c r="B6" t="n">
         <v>601128</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" t="n">
-        <v>4.659574468085107</v>
+        <v>4.949152542372881</v>
       </c>
       <c r="F6" t="n">
         <v>8.76</v>
       </c>
       <c r="G6" t="n">
-        <v>1.88</v>
+        <v>1.77</v>
       </c>
       <c r="H6" t="n">
-        <v>16.04</v>
+        <v>15.56</v>
       </c>
       <c r="I6" t="n">
         <v>4.4426</v>
@@ -724,32 +708,31 @@
       <c r="M6" t="n">
         <v>-0.044</v>
       </c>
-      <c r="N6" t="s"/>
-    </row>
-    <row r="7" spans="1:14">
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="n">
-        <v>3258</v>
+        <v>2329</v>
       </c>
       <c r="B7" t="n">
         <v>2142</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="n">
-        <v>6.567307692307693</v>
+        <v>6.696078431372549</v>
       </c>
       <c r="F7" t="n">
         <v>13.66</v>
       </c>
       <c r="G7" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="H7" t="n">
-        <v>10.42</v>
+        <v>10.21</v>
       </c>
       <c r="I7" t="n">
         <v>7.2894</v>
@@ -764,32 +747,31 @@
       <c r="M7" t="n">
         <v>-0.0204</v>
       </c>
-      <c r="N7" t="s"/>
-    </row>
-    <row r="8" spans="1:14">
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="n">
-        <v>2758</v>
+        <v>982</v>
       </c>
       <c r="B8" t="n">
         <v>600036</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" t="n">
-        <v>6.882051282051282</v>
+        <v>6.953367875647668</v>
       </c>
       <c r="F8" t="n">
         <v>13.42</v>
       </c>
       <c r="G8" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="H8" t="n">
-        <v>10.89</v>
+        <v>10.77</v>
       </c>
       <c r="I8" t="n">
         <v>10.8712</v>
@@ -804,32 +786,31 @@
       <c r="M8" t="n">
         <v>-0.0312</v>
       </c>
-      <c r="N8" t="s"/>
-    </row>
-    <row r="9" spans="1:14">
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="n">
-        <v>2365</v>
+        <v>2451</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="n">
-        <v>6.913385826771653</v>
+        <v>7.196721311475409</v>
       </c>
       <c r="F9" t="n">
         <v>8.779999999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="H9" t="n">
-        <v>9.84</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="I9" t="n">
         <v>10.0304</v>
@@ -844,112 +825,109 @@
       <c r="M9" t="n">
         <v>-0.0504</v>
       </c>
-      <c r="N9" t="s"/>
-    </row>
-    <row r="10" spans="1:14">
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="n">
-        <v>2097</v>
+        <v>42</v>
       </c>
       <c r="B10" t="n">
-        <v>600926</v>
+        <v>601009</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" t="n">
-        <v>7.721739130434784</v>
+        <v>7.493333333333333</v>
       </c>
       <c r="F10" t="n">
-        <v>8.880000000000001</v>
+        <v>11.24</v>
       </c>
       <c r="G10" t="n">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="H10" t="n">
-        <v>9.69</v>
+        <v>8.49</v>
       </c>
       <c r="I10" t="n">
-        <v>18.8689</v>
+        <v>7.4412</v>
       </c>
       <c r="J10" t="n">
-        <v>41.3221</v>
+        <v>49.4719</v>
       </c>
       <c r="K10" t="n">
-        <v>4.594973047423599e-05</v>
+        <v>6.493653442114295e-05</v>
       </c>
       <c r="L10" t="s"/>
       <c r="M10" t="n">
-        <v>0.0733</v>
-      </c>
-      <c r="N10" t="s"/>
-    </row>
-    <row r="11" spans="1:14">
+        <v>-0.0126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="n">
-        <v>2645</v>
+        <v>552</v>
       </c>
       <c r="B11" t="n">
-        <v>601009</v>
+        <v>600926</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" t="n">
-        <v>7.971631205673759</v>
+        <v>7.858407079646019</v>
       </c>
       <c r="F11" t="n">
-        <v>11.24</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>1.41</v>
+        <v>1.13</v>
       </c>
       <c r="H11" t="n">
-        <v>7.99</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>7.4412</v>
+        <v>18.8689</v>
       </c>
       <c r="J11" t="n">
-        <v>49.4719</v>
+        <v>41.3221</v>
       </c>
       <c r="K11" t="n">
-        <v>6.493653442114295e-05</v>
+        <v>4.594973047423599e-05</v>
       </c>
       <c r="L11" t="s"/>
       <c r="M11" t="n">
-        <v>-0.0126</v>
-      </c>
-      <c r="N11" t="s"/>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0.0733</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="n">
-        <v>3059</v>
+        <v>910</v>
       </c>
       <c r="B12" t="n">
         <v>601398</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" t="n">
-        <v>8.265151515151516</v>
+        <v>8.32824427480916</v>
       </c>
       <c r="F12" t="n">
         <v>10.91</v>
       </c>
       <c r="G12" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="H12" t="n">
-        <v>8.68</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="I12" t="n">
         <v>7.5306</v>
@@ -964,272 +942,265 @@
       <c r="M12" t="n">
         <v>0.0278</v>
       </c>
-      <c r="N12" t="s"/>
-    </row>
-    <row r="13" spans="1:14">
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="n">
-        <v>3121</v>
+        <v>345</v>
       </c>
       <c r="B13" t="n">
-        <v>601939</v>
+        <v>601998</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" t="n">
-        <v>8.314685314685315</v>
+        <v>8.77</v>
       </c>
       <c r="F13" t="n">
-        <v>11.89</v>
+        <v>8.77</v>
       </c>
       <c r="G13" t="n">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>9.01</v>
+        <v>7.79</v>
       </c>
       <c r="I13" t="n">
-        <v>8.7294</v>
+        <v>15.4835</v>
       </c>
       <c r="J13" t="n">
-        <v>52.6185</v>
+        <v>38.4547</v>
       </c>
       <c r="K13" t="n">
-        <v>9.124990089753461e-05</v>
+        <v>6.273825293127682e-05</v>
       </c>
       <c r="L13" t="s"/>
       <c r="M13" t="n">
-        <v>0.0061</v>
-      </c>
-      <c r="N13" t="s"/>
-    </row>
-    <row r="14" spans="1:14">
+        <v>-0.0008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="n">
-        <v>1815</v>
+        <v>1082</v>
       </c>
       <c r="B14" t="n">
-        <v>601998</v>
+        <v>601997</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" t="n">
-        <v>8.77</v>
+        <v>8.84313725490196</v>
       </c>
       <c r="F14" t="n">
-        <v>8.77</v>
+        <v>13.53</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>1.53</v>
       </c>
       <c r="H14" t="n">
-        <v>7.82</v>
+        <v>8.49</v>
       </c>
       <c r="I14" t="n">
-        <v>15.4835</v>
+        <v>14.3971</v>
       </c>
       <c r="J14" t="n">
-        <v>38.4547</v>
+        <v>41.2787</v>
       </c>
       <c r="K14" t="n">
-        <v>6.273825293127682e-05</v>
+        <v>7.361886200543402e-05</v>
       </c>
       <c r="L14" t="s"/>
       <c r="M14" t="n">
-        <v>-0.0008</v>
-      </c>
-      <c r="N14" t="s"/>
-    </row>
-    <row r="15" spans="1:14">
+        <v>0.0125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="n">
-        <v>1435</v>
+        <v>264</v>
       </c>
       <c r="B15" t="n">
-        <v>601997</v>
+        <v>601229</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" t="n">
-        <v>9.02</v>
+        <v>9.287128712871288</v>
       </c>
       <c r="F15" t="n">
-        <v>13.53</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="H15" t="n">
-        <v>8.32</v>
+        <v>8.06</v>
       </c>
       <c r="I15" t="n">
-        <v>14.3971</v>
+        <v>20.0347</v>
       </c>
       <c r="J15" t="n">
-        <v>41.2787</v>
+        <v>48.8522</v>
       </c>
       <c r="K15" t="n">
-        <v>7.361886200543402e-05</v>
+        <v>6.623625805943695e-05</v>
       </c>
       <c r="L15" t="s"/>
       <c r="M15" t="n">
-        <v>0.0125</v>
-      </c>
-      <c r="N15" t="s"/>
-    </row>
-    <row r="16" spans="1:14">
+        <v>-0.0492</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="n">
-        <v>1602</v>
+        <v>783</v>
       </c>
       <c r="B16" t="n">
-        <v>601229</v>
+        <v>601328</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" t="n">
-        <v>9.287128712871288</v>
+        <v>9.494252873563218</v>
       </c>
       <c r="F16" t="n">
-        <v>9.380000000000001</v>
+        <v>8.26</v>
       </c>
       <c r="G16" t="n">
-        <v>1.01</v>
+        <v>0.87</v>
       </c>
       <c r="H16" t="n">
-        <v>8.07</v>
+        <v>7.18</v>
       </c>
       <c r="I16" t="n">
-        <v>20.0347</v>
+        <v>7.21</v>
       </c>
       <c r="J16" t="n">
-        <v>48.8522</v>
+        <v>43.6874</v>
       </c>
       <c r="K16" t="n">
-        <v>6.623625805943695e-05</v>
+        <v>6.090003862579271e-05</v>
       </c>
       <c r="L16" t="s"/>
       <c r="M16" t="n">
-        <v>-0.0492</v>
-      </c>
-      <c r="N16" t="s"/>
-    </row>
-    <row r="17" spans="1:14">
+        <v>0.0032</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="n">
-        <v>1189</v>
+        <v>572</v>
       </c>
       <c r="B17" t="n">
-        <v>601328</v>
+        <v>600015</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" t="n">
-        <v>9.494252873563218</v>
+        <v>9.68888888888889</v>
       </c>
       <c r="F17" t="n">
-        <v>8.26</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="G17" t="n">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="H17" t="n">
-        <v>7.21</v>
+        <v>6.8</v>
       </c>
       <c r="I17" t="n">
-        <v>7.21</v>
+        <v>9.989100000000001</v>
       </c>
       <c r="J17" t="n">
-        <v>43.6874</v>
+        <v>38.0452</v>
       </c>
       <c r="K17" t="n">
-        <v>6.090003862579271e-05</v>
+        <v>5.816936879132859e-05</v>
       </c>
       <c r="L17" t="s"/>
       <c r="M17" t="n">
-        <v>0.0032</v>
-      </c>
-      <c r="N17" t="s"/>
-    </row>
-    <row r="18" spans="1:14">
+        <v>-0.0412</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="n">
-        <v>1239</v>
+        <v>502</v>
       </c>
       <c r="B18" t="n">
-        <v>600015</v>
+        <v>600919</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" t="n">
-        <v>9.68888888888889</v>
+        <v>9.754716981132075</v>
       </c>
       <c r="F18" t="n">
-        <v>8.720000000000001</v>
+        <v>10.34</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9</v>
+        <v>1.06</v>
       </c>
       <c r="H18" t="n">
-        <v>6.81</v>
+        <v>7.69</v>
       </c>
       <c r="I18" t="n">
-        <v>9.989100000000001</v>
+        <v>11.6682</v>
       </c>
       <c r="J18" t="n">
-        <v>38.0452</v>
+        <v>41.4713</v>
       </c>
       <c r="K18" t="n">
-        <v>5.816936879132859e-05</v>
+        <v>5.286566933559636e-05</v>
       </c>
       <c r="L18" t="s"/>
       <c r="M18" t="n">
-        <v>-0.0412</v>
-      </c>
-      <c r="N18" t="s"/>
-    </row>
-    <row r="19" spans="1:14">
+        <v>-0.0646</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="n">
-        <v>104</v>
+        <v>2880</v>
       </c>
       <c r="B19" t="n">
         <v>600000</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" t="n">
-        <v>9.737864077669903</v>
+        <v>9.833333333333332</v>
       </c>
       <c r="F19" t="n">
         <v>10.03</v>
       </c>
       <c r="G19" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="H19" t="n">
-        <v>7.13</v>
+        <v>7.05</v>
       </c>
       <c r="I19" t="n">
         <v>15.9334</v>
@@ -1244,287 +1215,201 @@
       <c r="M19" t="n">
         <v>-0.0162</v>
       </c>
-      <c r="N19" t="s"/>
-    </row>
-    <row r="20" spans="1:14">
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="n">
-        <v>2415</v>
+        <v>780</v>
       </c>
       <c r="B20" t="n">
-        <v>600919</v>
+        <v>601988</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" t="n">
-        <v>9.754716981132075</v>
+        <v>9.91919191919192</v>
       </c>
       <c r="F20" t="n">
-        <v>10.34</v>
+        <v>9.82</v>
       </c>
       <c r="G20" t="n">
-        <v>1.06</v>
+        <v>0.99</v>
       </c>
       <c r="H20" t="n">
-        <v>7.71</v>
+        <v>7.06</v>
       </c>
       <c r="I20" t="n">
-        <v>11.6682</v>
+        <v>6.6133</v>
       </c>
       <c r="J20" t="n">
-        <v>41.4713</v>
+        <v>52.1636</v>
       </c>
       <c r="K20" t="n">
-        <v>5.286566933559636e-05</v>
+        <v>7.491644797251892e-05</v>
       </c>
       <c r="L20" t="s"/>
       <c r="M20" t="n">
-        <v>-0.0646</v>
-      </c>
-      <c r="N20" t="s"/>
-    </row>
-    <row r="21" spans="1:14">
+        <v>0.0195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="n">
-        <v>1878</v>
+        <v>2656</v>
       </c>
       <c r="B21" t="n">
-        <v>601988</v>
+        <v>601288</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" t="n">
-        <v>9.82</v>
+        <v>10.34545454545455</v>
       </c>
       <c r="F21" t="n">
-        <v>9.82</v>
+        <v>11.38</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H21" t="n">
-        <v>7.12</v>
+        <v>6.82</v>
       </c>
       <c r="I21" t="n">
-        <v>6.6133</v>
+        <v>7.3369</v>
       </c>
       <c r="J21" t="n">
-        <v>52.1636</v>
+        <v>47.082</v>
       </c>
       <c r="K21" t="n">
-        <v>7.491644797251892e-05</v>
+        <v>7.647521721580802e-05</v>
       </c>
       <c r="L21" t="s"/>
       <c r="M21" t="n">
-        <v>0.0195</v>
-      </c>
-      <c r="N21" t="s"/>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.0285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="n">
-        <v>2078</v>
+        <v>478</v>
       </c>
       <c r="B22" t="n">
-        <v>601818</v>
+        <v>601169</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" t="n">
-        <v>10.09782608695652</v>
+        <v>11.06521739130435</v>
       </c>
       <c r="F22" t="n">
-        <v>9.289999999999999</v>
+        <v>10.18</v>
       </c>
       <c r="G22" t="n">
         <v>0.92</v>
       </c>
       <c r="H22" t="n">
-        <v>7.43</v>
+        <v>7.87</v>
       </c>
       <c r="I22" t="n">
-        <v>10.3261</v>
+        <v>7.8036</v>
       </c>
       <c r="J22" t="n">
-        <v>47.9205</v>
+        <v>49.7578</v>
       </c>
       <c r="K22" t="n">
-        <v>6.310269737842917e-05</v>
+        <v>6.819542562173342e-05</v>
       </c>
       <c r="L22" t="s"/>
       <c r="M22" t="n">
-        <v>-0.0507</v>
-      </c>
-      <c r="N22" t="s"/>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.0037</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="n">
-        <v>1005</v>
+        <v>675</v>
       </c>
       <c r="B23" t="n">
-        <v>601288</v>
+        <v>601166</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" t="n">
-        <v>10.25225225225225</v>
+        <v>11.31372549019608</v>
       </c>
       <c r="F23" t="n">
-        <v>11.38</v>
+        <v>11.54</v>
       </c>
       <c r="G23" t="n">
-        <v>1.11</v>
+        <v>1.02</v>
       </c>
       <c r="H23" t="n">
-        <v>6.9</v>
+        <v>6.18</v>
       </c>
       <c r="I23" t="n">
-        <v>7.3369</v>
+        <v>18.9603</v>
       </c>
       <c r="J23" t="n">
-        <v>47.082</v>
+        <v>52.6436</v>
       </c>
       <c r="K23" t="n">
-        <v>7.647521721580802e-05</v>
+        <v>7.358990081537904e-05</v>
       </c>
       <c r="L23" t="s"/>
       <c r="M23" t="n">
-        <v>0.0285</v>
-      </c>
-      <c r="N23" t="s"/>
-    </row>
-    <row r="24" spans="1:14">
+        <v>-0.0253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="n">
-        <v>1148</v>
+        <v>862</v>
       </c>
       <c r="B24" t="n">
-        <v>601169</v>
+        <v>600016</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" t="n">
-        <v>11.06521739130435</v>
+        <v>11.54255319148936</v>
       </c>
       <c r="F24" t="n">
-        <v>10.18</v>
+        <v>10.85</v>
       </c>
       <c r="G24" t="n">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H24" t="n">
-        <v>7.89</v>
+        <v>6.34</v>
       </c>
       <c r="I24" t="n">
-        <v>7.8036</v>
+        <v>13.5741</v>
       </c>
       <c r="J24" t="n">
-        <v>49.7578</v>
+        <v>46.1804</v>
       </c>
       <c r="K24" t="n">
-        <v>6.819542562173342e-05</v>
+        <v>7.044695893486537e-05</v>
       </c>
       <c r="L24" t="s"/>
       <c r="M24" t="n">
-        <v>0.0037</v>
-      </c>
-      <c r="N24" t="s"/>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="1" t="n">
-        <v>474</v>
-      </c>
-      <c r="B25" t="n">
-        <v>601166</v>
-      </c>
-      <c r="C25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" t="n">
-        <v>11.42574257425743</v>
-      </c>
-      <c r="F25" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="G25" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="H25" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="I25" t="n">
-        <v>18.9603</v>
-      </c>
-      <c r="J25" t="n">
-        <v>52.6436</v>
-      </c>
-      <c r="K25" t="n">
-        <v>7.358990081537904e-05</v>
-      </c>
-      <c r="L25" t="s"/>
-      <c r="M25" t="n">
-        <v>-0.0253</v>
-      </c>
-      <c r="N25" t="s"/>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="1" t="n">
-        <v>1113</v>
-      </c>
-      <c r="B26" t="n">
-        <v>600016</v>
-      </c>
-      <c r="C26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" t="n">
-        <v>11.54255319148936</v>
-      </c>
-      <c r="F26" t="n">
-        <v>10.85</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="H26" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="I26" t="n">
-        <v>13.5741</v>
-      </c>
-      <c r="J26" t="n">
-        <v>46.1804</v>
-      </c>
-      <c r="K26" t="n">
-        <v>7.044695893486537e-05</v>
-      </c>
-      <c r="L26" t="s"/>
-      <c r="M26" t="n">
         <v>-0.0644</v>
       </c>
-      <c r="N26" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
